--- a/sdk/compute/Azure.ResourceManager.Compute/tests/MultipleTrials/durations.xlsx
+++ b/sdk/compute/Azure.ResourceManager.Compute/tests/MultipleTrials/durations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\codegen\azure-sdk-for-net3\sdk\compute\Azure.ResourceManager.Compute\tests\MultipleTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FBDF6E-25EB-4F3C-B147-E4EF1D755D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36A991-B621-4811-8C4D-90F25B98DE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D86A2C66-5612-4655-8371-63EE77B4416F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Group1" sheetId="1" r:id="rId1"/>
+    <sheet name="Group2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>Setup: create rg with SDK, and then create virtual network and network interface with armtemplate or SDK</t>
+  </si>
+  <si>
+    <t>Setup: create rg with SDK, and then create (virtual network and network interface)*4 with armtemplate or SDK</t>
   </si>
 </sst>
 </file>
@@ -419,7 +423,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +828,410 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A313B8C2-7E4B-4402-BD4A-C0249A3FA789}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E15" si="0">B6+C6+D6</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>B10+C10+D10</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f>B11+C11+D11</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f>B12+C12+D12</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>B13+C13+D13</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B6:B15)</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(C6:C15)</f>
+        <v>41.2</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(D6:D15)</f>
+        <v>3.6</v>
+      </c>
+      <c r="E16">
+        <f>B16+C16+D16</f>
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E30" si="1">B20+C20+D20</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <f>B24+C24+D24</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f>B25+C25+D25</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <f>B26+C26+D26</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f>B27+C27+D27</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(B20:B29)</f>
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE(C20:C29)</f>
+        <v>43.2</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(D20:D29)</f>
+        <v>3.1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>95.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
